--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Tshr.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H2">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I2">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J2">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1853783333333333</v>
+        <v>0.1744923333333333</v>
       </c>
       <c r="N2">
-        <v>0.5561349999999999</v>
+        <v>0.523477</v>
       </c>
       <c r="O2">
-        <v>0.05150040234182901</v>
+        <v>0.07822917822503123</v>
       </c>
       <c r="P2">
-        <v>0.06174910743679609</v>
+        <v>0.08239975633156223</v>
       </c>
       <c r="Q2">
-        <v>28.12672628878056</v>
+        <v>25.26357671716166</v>
       </c>
       <c r="R2">
-        <v>253.140536599025</v>
+        <v>227.372190454455</v>
       </c>
       <c r="S2">
-        <v>0.01390891687569756</v>
+        <v>0.0190100527850741</v>
       </c>
       <c r="T2">
-        <v>0.01718703969619265</v>
+        <v>0.02068338385064564</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H3">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I3">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J3">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.630605</v>
       </c>
       <c r="O3">
-        <v>0.3362090468038446</v>
+        <v>0.5425629886502931</v>
       </c>
       <c r="P3">
-        <v>0.4031154633417589</v>
+        <v>0.5714882742434749</v>
       </c>
       <c r="Q3">
-        <v>183.6191448077861</v>
+        <v>175.2169970165083</v>
       </c>
       <c r="R3">
-        <v>1652.572303270075</v>
+        <v>1576.952973148575</v>
       </c>
       <c r="S3">
-        <v>0.09080130391630081</v>
+        <v>0.1318453202179923</v>
       </c>
       <c r="T3">
-        <v>0.1122018075758503</v>
+        <v>0.1434508045722607</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H4">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I4">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J4">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.167083</v>
+        <v>0.1427166666666667</v>
       </c>
       <c r="N4">
-        <v>0.5012489999999999</v>
+        <v>0.42815</v>
       </c>
       <c r="O4">
-        <v>0.04641773161811331</v>
+        <v>0.06398337015197826</v>
       </c>
       <c r="P4">
-        <v>0.05565497289972147</v>
+        <v>0.06739447133944447</v>
       </c>
       <c r="Q4">
-        <v>25.35084723228167</v>
+        <v>20.66299067858333</v>
       </c>
       <c r="R4">
-        <v>228.157625090535</v>
+        <v>185.96691610725</v>
       </c>
       <c r="S4">
-        <v>0.01253621993765278</v>
+        <v>0.01554825541509842</v>
       </c>
       <c r="T4">
-        <v>0.01549081870530872</v>
+        <v>0.01691686701737408</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H5">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I5">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J5">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.7922885</v>
+        <v>0.3386875</v>
       </c>
       <c r="N5">
-        <v>3.584577</v>
+        <v>0.6773750000000001</v>
       </c>
       <c r="O5">
-        <v>0.4979199953031181</v>
+        <v>0.15184188493529</v>
       </c>
       <c r="P5">
-        <v>0.3980048554550032</v>
+        <v>0.1066246175956001</v>
       </c>
       <c r="Q5">
-        <v>271.9368933983425</v>
+        <v>49.0362956121875</v>
       </c>
       <c r="R5">
-        <v>1631.621360390055</v>
+        <v>294.217773673125</v>
       </c>
       <c r="S5">
-        <v>0.1344752178721102</v>
+        <v>0.03689828160154955</v>
       </c>
       <c r="T5">
-        <v>0.1107793380978704</v>
+        <v>0.0267641312528174</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H6">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I6">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J6">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2445996666666667</v>
+        <v>0.3644293333333333</v>
       </c>
       <c r="N6">
-        <v>0.7337990000000001</v>
+        <v>1.093288</v>
       </c>
       <c r="O6">
-        <v>0.06795282393309501</v>
+        <v>0.1633825780374074</v>
       </c>
       <c r="P6">
-        <v>0.08147560086672039</v>
+        <v>0.1720928804899184</v>
       </c>
       <c r="Q6">
-        <v>37.11214655430945</v>
+        <v>52.76328331894666</v>
       </c>
       <c r="R6">
-        <v>334.0093189887851</v>
+        <v>474.86954987052</v>
       </c>
       <c r="S6">
-        <v>0.01835228729439794</v>
+        <v>0.03970272349938601</v>
       </c>
       <c r="T6">
-        <v>0.02267764579108754</v>
+        <v>0.04319749552187521</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H7">
         <v>246.746613</v>
       </c>
       <c r="I7">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J7">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1853783333333333</v>
+        <v>0.1744923333333333</v>
       </c>
       <c r="N7">
-        <v>0.5561349999999999</v>
+        <v>0.523477</v>
       </c>
       <c r="O7">
-        <v>0.05150040234182901</v>
+        <v>0.07822917822503123</v>
       </c>
       <c r="P7">
-        <v>0.06174910743679609</v>
+        <v>0.08239975633156223</v>
       </c>
       <c r="Q7">
-        <v>15.24715862452833</v>
+        <v>14.35179741482233</v>
       </c>
       <c r="R7">
-        <v>137.224427620755</v>
+        <v>129.166176733401</v>
       </c>
       <c r="S7">
-        <v>0.007539855855309147</v>
+        <v>0.01079927951100958</v>
       </c>
       <c r="T7">
-        <v>0.009316886645227703</v>
+        <v>0.01174986971167177</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H8">
         <v>246.746613</v>
       </c>
       <c r="I8">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J8">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>3.630605</v>
       </c>
       <c r="O8">
-        <v>0.3362090468038446</v>
+        <v>0.5425629886502931</v>
       </c>
       <c r="P8">
-        <v>0.4031154633417589</v>
+        <v>0.5714882742434749</v>
       </c>
       <c r="Q8">
-        <v>99.53772076565167</v>
+        <v>99.53772076565166</v>
       </c>
       <c r="R8">
-        <v>895.8394868908651</v>
+        <v>895.839486890865</v>
       </c>
       <c r="S8">
-        <v>0.04922229021292433</v>
+        <v>0.07489902744355323</v>
       </c>
       <c r="T8">
-        <v>0.06082324478516354</v>
+        <v>0.0814919007416641</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H9">
         <v>246.746613</v>
       </c>
       <c r="I9">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J9">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.167083</v>
+        <v>0.1427166666666667</v>
       </c>
       <c r="N9">
-        <v>0.5012489999999999</v>
+        <v>0.42815</v>
       </c>
       <c r="O9">
-        <v>0.04641773161811331</v>
+        <v>0.06398337015197826</v>
       </c>
       <c r="P9">
-        <v>0.05565497289972147</v>
+        <v>0.06739447133944447</v>
       </c>
       <c r="Q9">
-        <v>13.742388113293</v>
+        <v>11.73828470621667</v>
       </c>
       <c r="R9">
-        <v>123.681493019637</v>
+        <v>105.64456235595</v>
       </c>
       <c r="S9">
-        <v>0.006795733423751166</v>
+        <v>0.008832692788104826</v>
       </c>
       <c r="T9">
-        <v>0.008397385731942318</v>
+        <v>0.009610177175028262</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H10">
         <v>246.746613</v>
       </c>
       <c r="I10">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J10">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.7922885</v>
+        <v>0.3386875</v>
       </c>
       <c r="N10">
-        <v>3.584577</v>
+        <v>0.6773750000000001</v>
       </c>
       <c r="O10">
-        <v>0.4979199953031181</v>
+        <v>0.15184188493529</v>
       </c>
       <c r="P10">
-        <v>0.3980048554550032</v>
+        <v>0.1066246175956001</v>
       </c>
       <c r="Q10">
-        <v>147.4137056312835</v>
+        <v>27.8566644968125</v>
       </c>
       <c r="R10">
-        <v>884.482233787701</v>
+        <v>167.139986980875</v>
       </c>
       <c r="S10">
-        <v>0.07289739150275518</v>
+        <v>0.02096127038657891</v>
       </c>
       <c r="T10">
-        <v>0.06005214126082765</v>
+        <v>0.01520423628152463</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H11">
         <v>246.746613</v>
       </c>
       <c r="I11">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J11">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2445996666666667</v>
+        <v>0.3644293333333333</v>
       </c>
       <c r="N11">
-        <v>0.7337990000000001</v>
+        <v>1.093288</v>
       </c>
       <c r="O11">
-        <v>0.06795282393309501</v>
+        <v>0.1633825780374074</v>
       </c>
       <c r="P11">
-        <v>0.08147560086672039</v>
+        <v>0.1720928804899184</v>
       </c>
       <c r="Q11">
-        <v>20.11804643030967</v>
+        <v>29.97390122594933</v>
       </c>
       <c r="R11">
-        <v>181.0624178727871</v>
+        <v>269.765111033544</v>
       </c>
       <c r="S11">
-        <v>0.00994855329509921</v>
+        <v>0.02255442492799614</v>
       </c>
       <c r="T11">
-        <v>0.01229327789723978</v>
+        <v>0.02453974397601845</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H12">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I12">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J12">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1853783333333333</v>
+        <v>0.1744923333333333</v>
       </c>
       <c r="N12">
-        <v>0.5561349999999999</v>
+        <v>0.523477</v>
       </c>
       <c r="O12">
-        <v>0.05150040234182901</v>
+        <v>0.07822917822503123</v>
       </c>
       <c r="P12">
-        <v>0.06174910743679609</v>
+        <v>0.08239975633156223</v>
       </c>
       <c r="Q12">
-        <v>22.883902486445</v>
+        <v>28.59215501014078</v>
       </c>
       <c r="R12">
-        <v>205.955122378005</v>
+        <v>257.329395091267</v>
       </c>
       <c r="S12">
-        <v>0.01131629377011767</v>
+        <v>0.02151470403684245</v>
       </c>
       <c r="T12">
-        <v>0.0139833742611993</v>
+        <v>0.02340850323027197</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H13">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I13">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J13">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.630605</v>
       </c>
       <c r="O13">
-        <v>0.3362090468038446</v>
+        <v>0.5425629886502931</v>
       </c>
       <c r="P13">
-        <v>0.4031154633417589</v>
+        <v>0.5714882742434749</v>
       </c>
       <c r="Q13">
-        <v>149.392523014735</v>
+        <v>198.3025442198839</v>
       </c>
       <c r="R13">
-        <v>1344.532707132615</v>
+        <v>1784.722897978955</v>
       </c>
       <c r="S13">
-        <v>0.07387593433834962</v>
+        <v>0.1492164737890688</v>
       </c>
       <c r="T13">
-        <v>0.09128738257721865</v>
+        <v>0.1623510275911675</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H14">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I14">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J14">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.167083</v>
+        <v>0.1427166666666667</v>
       </c>
       <c r="N14">
-        <v>0.5012489999999999</v>
+        <v>0.42815</v>
       </c>
       <c r="O14">
-        <v>0.04641773161811331</v>
+        <v>0.06398337015197826</v>
       </c>
       <c r="P14">
-        <v>0.05565497289972147</v>
+        <v>0.06739447133944447</v>
       </c>
       <c r="Q14">
-        <v>20.625447485643</v>
+        <v>23.38542317540556</v>
       </c>
       <c r="R14">
-        <v>185.629027370787</v>
+        <v>210.46880857865</v>
       </c>
       <c r="S14">
-        <v>0.01019946764001135</v>
+        <v>0.01759680087830812</v>
       </c>
       <c r="T14">
-        <v>0.01260332898496208</v>
+        <v>0.01914573258813844</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H15">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I15">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J15">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.7922885</v>
+        <v>0.3386875</v>
       </c>
       <c r="N15">
-        <v>3.584577</v>
+        <v>0.6773750000000001</v>
       </c>
       <c r="O15">
-        <v>0.4979199953031181</v>
+        <v>0.15184188493529</v>
       </c>
       <c r="P15">
-        <v>0.3980048554550032</v>
+        <v>0.1066246175956001</v>
       </c>
       <c r="Q15">
-        <v>221.2478369186085</v>
+        <v>55.49702565727084</v>
       </c>
       <c r="R15">
-        <v>1327.487021511651</v>
+        <v>332.982153943625</v>
       </c>
       <c r="S15">
-        <v>0.1094090275929597</v>
+        <v>0.04175977926524802</v>
       </c>
       <c r="T15">
-        <v>0.09013006151219939</v>
+        <v>0.03029041366785069</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H16">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I16">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J16">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2445996666666667</v>
+        <v>0.3644293333333333</v>
       </c>
       <c r="N16">
-        <v>0.7337990000000001</v>
+        <v>1.093288</v>
       </c>
       <c r="O16">
-        <v>0.06795282393309501</v>
+        <v>0.1633825780374074</v>
       </c>
       <c r="P16">
-        <v>0.08147560086672039</v>
+        <v>0.1720928804899184</v>
       </c>
       <c r="Q16">
-        <v>30.194439768493</v>
+        <v>59.71505905078311</v>
       </c>
       <c r="R16">
-        <v>271.749957916437</v>
+        <v>537.435531457048</v>
       </c>
       <c r="S16">
-        <v>0.01493141962332631</v>
+        <v>0.04493371771258606</v>
       </c>
       <c r="T16">
-        <v>0.01845053098527118</v>
+        <v>0.04888894006731447</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H17">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I17">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J17">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1853783333333333</v>
+        <v>0.1744923333333333</v>
       </c>
       <c r="N17">
-        <v>0.5561349999999999</v>
+        <v>0.523477</v>
       </c>
       <c r="O17">
-        <v>0.05150040234182901</v>
+        <v>0.07822917822503123</v>
       </c>
       <c r="P17">
-        <v>0.06174910743679609</v>
+        <v>0.08239975633156223</v>
       </c>
       <c r="Q17">
-        <v>9.2749067040625</v>
+        <v>9.9502175752105</v>
       </c>
       <c r="R17">
-        <v>55.649440224375</v>
+        <v>59.701305451263</v>
       </c>
       <c r="S17">
-        <v>0.004586524043081176</v>
+        <v>0.007487228093052647</v>
       </c>
       <c r="T17">
-        <v>0.00377833258575354</v>
+        <v>0.005430853327159478</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H18">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I18">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J18">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.630605</v>
       </c>
       <c r="O18">
-        <v>0.3362090468038446</v>
+        <v>0.5425629886502931</v>
       </c>
       <c r="P18">
-        <v>0.4031154633417589</v>
+        <v>0.5714882742434749</v>
       </c>
       <c r="Q18">
-        <v>60.5491879746875</v>
+        <v>69.01030929658249</v>
       </c>
       <c r="R18">
-        <v>363.295127848125</v>
+        <v>414.061855779495</v>
       </c>
       <c r="S18">
-        <v>0.02994211319810969</v>
+        <v>0.05192810333744826</v>
       </c>
       <c r="T18">
-        <v>0.02466601306786973</v>
+        <v>0.03766599725270039</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H19">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I19">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J19">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.167083</v>
+        <v>0.1427166666666667</v>
       </c>
       <c r="N19">
-        <v>0.5012489999999999</v>
+        <v>0.42815</v>
       </c>
       <c r="O19">
-        <v>0.04641773161811331</v>
+        <v>0.06398337015197826</v>
       </c>
       <c r="P19">
-        <v>0.05565497289972147</v>
+        <v>0.06739447133944447</v>
       </c>
       <c r="Q19">
-        <v>8.3595488694375</v>
+        <v>8.138248012475001</v>
       </c>
       <c r="R19">
-        <v>50.157293216625</v>
+        <v>48.82948807485</v>
       </c>
       <c r="S19">
-        <v>0.00413387143422082</v>
+        <v>0.006123777564325637</v>
       </c>
       <c r="T19">
-        <v>0.00340544189859724</v>
+        <v>0.004441875864695738</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H20">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I20">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J20">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.7922885</v>
+        <v>0.3386875</v>
       </c>
       <c r="N20">
-        <v>3.584577</v>
+        <v>0.6773750000000001</v>
       </c>
       <c r="O20">
-        <v>0.4979199953031181</v>
+        <v>0.15184188493529</v>
       </c>
       <c r="P20">
-        <v>0.3980048554550032</v>
+        <v>0.1066246175956001</v>
       </c>
       <c r="Q20">
-        <v>89.67233832215625</v>
+        <v>19.31325148003125</v>
       </c>
       <c r="R20">
-        <v>358.689353288625</v>
+        <v>77.25300592012501</v>
       </c>
       <c r="S20">
-        <v>0.04434377065310344</v>
+        <v>0.01453261880521457</v>
       </c>
       <c r="T20">
-        <v>0.02435330285855533</v>
+        <v>0.007027480237879892</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H21">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I21">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J21">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.2445996666666667</v>
+        <v>0.3644293333333333</v>
       </c>
       <c r="N21">
-        <v>0.7337990000000001</v>
+        <v>1.093288</v>
       </c>
       <c r="O21">
-        <v>0.06795282393309501</v>
+        <v>0.1633825780374074</v>
       </c>
       <c r="P21">
-        <v>0.08147560086672039</v>
+        <v>0.1720928804899184</v>
       </c>
       <c r="Q21">
-        <v>12.2378869600625</v>
+        <v>20.781148880212</v>
       </c>
       <c r="R21">
-        <v>73.42732176037501</v>
+        <v>124.686893281272</v>
       </c>
       <c r="S21">
-        <v>0.006051744192127674</v>
+        <v>0.01563716577308524</v>
       </c>
       <c r="T21">
-        <v>0.004985366274543703</v>
+        <v>0.01134240238318691</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H22">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I22">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J22">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.1853783333333333</v>
+        <v>0.1744923333333333</v>
       </c>
       <c r="N22">
-        <v>0.5561349999999999</v>
+        <v>0.523477</v>
       </c>
       <c r="O22">
-        <v>0.05150040234182901</v>
+        <v>0.07822917822503123</v>
       </c>
       <c r="P22">
-        <v>0.06174910743679609</v>
+        <v>0.08239975633156223</v>
       </c>
       <c r="Q22">
-        <v>28.61184377617222</v>
+        <v>25.80560719614444</v>
       </c>
       <c r="R22">
-        <v>257.50659398555</v>
+        <v>232.2504647653</v>
       </c>
       <c r="S22">
-        <v>0.01414881179762345</v>
+        <v>0.01941791379905246</v>
       </c>
       <c r="T22">
-        <v>0.01748347424842291</v>
+        <v>0.02112714621181338</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H23">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I23">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J23">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.630605</v>
       </c>
       <c r="O23">
-        <v>0.3362090468038446</v>
+        <v>0.5425629886502931</v>
       </c>
       <c r="P23">
-        <v>0.4031154633417589</v>
+        <v>0.5714882742434749</v>
       </c>
       <c r="Q23">
-        <v>186.7861276002944</v>
+        <v>178.9762807427222</v>
       </c>
       <c r="R23">
-        <v>1681.07514840265</v>
+        <v>1610.7865266845</v>
       </c>
       <c r="S23">
-        <v>0.09236740513816016</v>
+        <v>0.1346740638622305</v>
       </c>
       <c r="T23">
-        <v>0.1141370153356567</v>
+        <v>0.1465285440856823</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H24">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I24">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J24">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1922,28 +1922,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.167083</v>
+        <v>0.1427166666666667</v>
       </c>
       <c r="N24">
-        <v>0.5012489999999999</v>
+        <v>0.42815</v>
       </c>
       <c r="O24">
-        <v>0.04641773161811331</v>
+        <v>0.06398337015197826</v>
       </c>
       <c r="P24">
-        <v>0.05565497289972147</v>
+        <v>0.06739447133944447</v>
       </c>
       <c r="Q24">
-        <v>25.78808757039666</v>
+        <v>21.10631550388889</v>
       </c>
       <c r="R24">
-        <v>232.09278813357</v>
+        <v>189.956839535</v>
       </c>
       <c r="S24">
-        <v>0.0127524391824772</v>
+        <v>0.01588184350614126</v>
       </c>
       <c r="T24">
-        <v>0.01575799757891112</v>
+        <v>0.01727981869420796</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H25">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I25">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J25">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.7922885</v>
+        <v>0.3386875</v>
       </c>
       <c r="N25">
-        <v>3.584577</v>
+        <v>0.6773750000000001</v>
       </c>
       <c r="O25">
-        <v>0.4979199953031181</v>
+        <v>0.15184188493529</v>
       </c>
       <c r="P25">
-        <v>0.3980048554550032</v>
+        <v>0.1066246175956001</v>
       </c>
       <c r="Q25">
-        <v>276.627142135435</v>
+        <v>50.08837018958334</v>
       </c>
       <c r="R25">
-        <v>1659.76285281261</v>
+        <v>300.5302211375</v>
       </c>
       <c r="S25">
-        <v>0.1367945876821896</v>
+        <v>0.03768993487669896</v>
       </c>
       <c r="T25">
-        <v>0.1126900117255505</v>
+        <v>0.02733835615552755</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H26">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I26">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J26">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.2445996666666667</v>
+        <v>0.3644293333333333</v>
       </c>
       <c r="N26">
-        <v>0.7337990000000001</v>
+        <v>1.093288</v>
       </c>
       <c r="O26">
-        <v>0.06795282393309501</v>
+        <v>0.1633825780374074</v>
       </c>
       <c r="P26">
-        <v>0.08147560086672039</v>
+        <v>0.1720928804899184</v>
       </c>
       <c r="Q26">
-        <v>37.75224064500778</v>
+        <v>53.89532048257778</v>
       </c>
       <c r="R26">
-        <v>339.7701658050701</v>
+        <v>485.0578843432</v>
       </c>
       <c r="S26">
-        <v>0.01866881952814388</v>
+        <v>0.04055454612435401</v>
       </c>
       <c r="T26">
-        <v>0.02306877991857819</v>
+        <v>0.04412429854152337</v>
       </c>
     </row>
   </sheetData>
